--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyanhong/PycharmProjects/InterAutoTest_W/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\研究生学习资料\个人学习资料\pytest\project\InterAutoTest_W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466295B6-68F1-4E8F-85AB-51062DB27109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
+    <workbookView xWindow="2790" yWindow="2520" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
     <sheet name="user" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -25,16 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>headers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -139,45 +133,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>login_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qk</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>o</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pw</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录成功</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dnal</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>请求参数类型</t>
     <rPh sb="0" eb="1">
       <t>ygfi</t>
@@ -199,158 +154,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{"username":"python","password":"12345678"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>无效数据。期待为字典类型</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>个人信息</t>
-    <rPh sb="0" eb="1">
-      <t>wh</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>w</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wyth</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录参数为空</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cdo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>o</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>pw</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qk</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ak</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pndc</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>o</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pw</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份认证信息未提供</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取个人信息正确</t>
-    <rPh sb="0" eb="1">
-      <t>aqb</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>w</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wyth</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ghd</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品列表数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品列表数据正确</t>
-    <rPh sb="6" eb="7">
-      <t>ghd</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>etyn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qk</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ak</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>pndc</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qay</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -375,10 +191,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>运行级别</t>
     <rPh sb="0" eb="1">
       <t>fctf</t>
@@ -389,14 +201,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Info_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Allure</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -421,155 +225,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>{"Authorization": "JWT ${token}$"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cate_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <rPh sb="0" eb="1">
-      <t>mqtr</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lg</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加购物车成功</t>
-    <rPh sb="0" eb="1">
-      <t>igd</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>lk</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mqtr</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lg</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>dnal</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {
- "page":"1",
- "page_size": "10",
- "ordering": "create_time"
- }</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <rPh sb="0" eb="1">
-      <t>ysuj</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存订单</t>
-    <rPh sb="0" eb="1">
-      <t>wkdh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ysuj</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"sku_id": "3","count": "1", "selected": "true"}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sku_id': 3, 'count': 1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "address":"1","pay_method":"1" }</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/authorizations/</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>/categories/115/skus/</t>
-  </si>
-  <si>
-    <t>/cart/</t>
-  </si>
-  <si>
-    <t>/orders/</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Authorization": "JWT ${token}$"}</t>
-  </si>
-  <si>
-    <t>select id,username,mobile,email from tb_users where username='python'</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -637,14 +293,177 @@
     <rPh sb="21" eb="22">
       <t>ras</t>
     </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic_1</t>
+  </si>
+  <si>
+    <t>topic_2</t>
+  </si>
+  <si>
+    <t>topic_3</t>
+  </si>
+  <si>
+    <t>topic_4</t>
+  </si>
+  <si>
+    <t>topic_5</t>
+  </si>
+  <si>
+    <t>/topics/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>title': ['该字段不能为空。']</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab': ['该字段不能为空。']</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"success": true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建主题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建主题参数为空</t>
+    <rPh sb="4" eb="5">
+      <t>cdo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>o</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pw</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建主题成功</t>
+    <rPh sb="4" eb="5">
+      <t>dnal</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法使用提供的token创建主题</t>
+  </si>
+  <si>
+    <t>创建主题板块名为空</t>
+    <rPh sb="4" eb="5">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>o</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pw</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建主题标题名为空</t>
+    <rPh sb="4" eb="5">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ak</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pndc</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>opw</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建主题token错误</t>
+    <rPh sb="4" eb="5">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ak</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pndc</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qay</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accesstoken": "bfd17478-46b8-48a4-9939-e34bf6a25882",
+        "title": "",
+        "tab": "ask",
+        "content": "test"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accesstoken": "bfd17478-46b8-48a4-9939-e34bf6a25882",
+        "title": "test测试测试测试",
+        "tab": "ask",
+        "content": "test"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accesstoken": "bfd17478-46b8-48a4-9939-e34bf6a25882",
+        "title": "test测试测试测试",
+        "tab": "",
+        "content": "test"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accesstoken": 123,
+        "title": "test测试测试测试",
+        "tab": "ask",
+        "content": "test"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/topics/update/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>'"success": true</t>
+  </si>
+  <si>
+    <t>{
+            "accesstoken": "bfd17478-46b8-48a4-9939-e34bf6a25882",
+            "title": " 测试修改主题",
+            "topic_id": "634427d3fe5e85471ce08a32",
+            "tab": "ask",
+            "content": "修改主题"
+        }</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic_4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,24 +1285,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1493,12 +1312,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1514,6 +1327,12 @@
     <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
@@ -1802,21 +1621,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2" displayName="表2" ref="A1:L20" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:L20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="用例ID" dataDxfId="11"/>
-    <tableColumn id="13" name="模块" dataDxfId="10"/>
-    <tableColumn id="14" name="接口名称" dataDxfId="9"/>
-    <tableColumn id="3" name="请求URL" dataDxfId="8"/>
-    <tableColumn id="15" name="前置条件" dataDxfId="7"/>
-    <tableColumn id="4" name="请求类型" dataDxfId="6"/>
-    <tableColumn id="16" name="请求参数类型" dataDxfId="5"/>
-    <tableColumn id="5" name="请求参数" dataDxfId="4"/>
-    <tableColumn id="9" name="预期结果" dataDxfId="3"/>
-    <tableColumn id="10" name="实际结果" dataDxfId="2"/>
-    <tableColumn id="11" name="备注" dataDxfId="1"/>
-    <tableColumn id="18" name="是否运行" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="用例ID" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="模块" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="接口名称" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="请求URL" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="前置条件" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="请求类型" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="请求参数类型" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="请求参数" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="预期结果" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="实际结果" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="备注" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="是否运行" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2084,103 +1903,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="66.375" customWidth="1"/>
     <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.1640625" customWidth="1"/>
+    <col min="10" max="11" width="8.125" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="11"/>
       <c r="L2" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2189,36 +2008,36 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="57">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="11"/>
       <c r="L3" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2227,36 +2046,36 @@
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="57">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="11"/>
       <c r="L4" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2265,36 +2084,36 @@
       </c>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="57">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="4" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2303,36 +2122,36 @@
       </c>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="57">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="11"/>
       <c r="L6" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2341,200 +2160,114 @@
       </c>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
+    <row r="7" spans="1:16" ht="99.75">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="11"/>
       <c r="L7" s="4" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="1:16">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="I8" s="16"/>
       <c r="J8" s="4"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="4">
-        <v>200</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>79</v>
-      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4">
-        <v>200</v>
-      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>72</v>
-      </c>
+    <row r="10" spans="1:16">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4">
-        <v>201</v>
-      </c>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>75</v>
-      </c>
+    <row r="11" spans="1:16">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>55</v>
-      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4">
-        <v>201</v>
-      </c>
+      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2552,7 +2285,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2570,12 +2303,12 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2590,12 +2323,12 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2610,12 +2343,12 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2630,12 +2363,12 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -2650,7 +2383,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2664,7 +2397,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2678,7 +2411,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2694,11 +2427,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="http://172.17.0.139:5004/categories/115/skus/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2706,69 +2436,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="85.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="18"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\研究生学习资料\个人学习资料\pytest\project\InterAutoTest_W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466295B6-68F1-4E8F-85AB-51062DB27109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B107D35-D94C-43F7-ADF4-49AAC437565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="2520" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="1230" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -445,17 +445,17 @@
     <t>'"success": true</t>
   </si>
   <si>
+    <t>topic_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>{
             "accesstoken": "bfd17478-46b8-48a4-9939-e34bf6a25882",
             "title": " 测试修改主题",
-            "topic_id": "634427d3fe5e85471ce08a32",
+            "topic_id": "${topic_id}$",
             "tab": "ask",
             "content": "修改主题"
         }</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic_4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1906,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2170,7 +2170,7 @@
         <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -2179,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>57</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\研究生学习资料\个人学习资料\pytest\project\InterAutoTest_W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B107D35-D94C-43F7-ADF4-49AAC437565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B28672E-17AD-4937-ADAE-363C8F54242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="1230" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>"success": true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>创建主题</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -349,9 +345,6 @@
       <t>dnal</t>
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法使用提供的token创建主题</t>
   </si>
   <si>
     <t>创建主题板块名为空</t>
@@ -440,9 +433,6 @@
   <si>
     <t>/topics/update/</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>'"success": true</t>
   </si>
   <si>
     <t>topic_4</t>
@@ -456,6 +446,14 @@
             "tab": "ask",
             "content": "修改主题"
         }</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>success': True</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>success': False</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1906,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1977,10 +1975,10 @@
         <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>39</v>
@@ -2013,10 +2011,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>39</v>
@@ -2029,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>41</v>
@@ -2051,10 +2049,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>39</v>
@@ -2067,7 +2065,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>40</v>
@@ -2089,10 +2087,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>39</v>
@@ -2105,15 +2103,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2127,10 +2125,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>39</v>
@@ -2143,10 +2141,10 @@
         <v>18</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="11"/>
@@ -2164,13 +2162,13 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -2179,15 +2177,15 @@
         <v>14</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="11"/>
       <c r="L7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4">
